--- a/Batch 2018-20/Sem 2/Students Database.xlsx
+++ b/Batch 2018-20/Sem 2/Students Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Chitnis\Videos\Results Genetaor\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED4A50-092A-4A64-A579-F1F3241CA985}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0157E3D-5D8C-4A9C-A984-9589F57F711C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$120</definedName>
     <definedName name="StudPics">INDEX(Sheet1!$C$2:$C$17,MATCH(Sheet1!#REF!,Sheet1!$A$2:$A$121,0))</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,36 +49,15 @@
     <t>ADEPU CHETAN GANESH ARCHANA</t>
   </si>
   <si>
-    <t>ADIVAREKAR PRITI GIRIGHAR NAMRATA</t>
-  </si>
-  <si>
     <t>AMBALLA VISHAL MANOHAR BHARATHI</t>
   </si>
   <si>
-    <t>AMIN MEENAL PRAVIN ANITA</t>
-  </si>
-  <si>
-    <t>ARANJO JULIANA MICHAEL LEENA</t>
-  </si>
-  <si>
     <t>BAGUL PRANAV PRAMOD MEENA</t>
   </si>
   <si>
-    <t>BAMANE RENUKA UTTAM SUNITA</t>
-  </si>
-  <si>
-    <t>BANSODE NAMRATA SUHAS SANGEETA</t>
-  </si>
-  <si>
-    <t>BHAJANI DHANASHREE MANOHAR KAVITA</t>
-  </si>
-  <si>
     <t>BHANGALE BHUPENDRA RAMESH JYOTI</t>
   </si>
   <si>
-    <t>BHATKAR ANAGHA ANIL AKSHATA</t>
-  </si>
-  <si>
     <t>BHOIR PRANAV SURESH SWETA</t>
   </si>
   <si>
@@ -88,51 +67,27 @@
     <t>BHOSALE MAYUR PRATAPRAO USHA</t>
   </si>
   <si>
-    <t>BIDVI ABOLI AJENDRA NEHA</t>
-  </si>
-  <si>
     <t>BORKAR DIPESH SHYAM SANGITA</t>
   </si>
   <si>
-    <t>CHANDORKAR PRAJAL MADHUKAR VANITA</t>
-  </si>
-  <si>
     <t>CHAUDHARI TRUPAL JEEVAN SMITA</t>
   </si>
   <si>
     <t>CHAVAN SURAJ SURESH SUREKHA</t>
   </si>
   <si>
-    <t>CHAWHAN SAMTA VIJAY SUNITA</t>
-  </si>
-  <si>
     <t>DESAI SAURABH HARESH HARSHADA</t>
   </si>
   <si>
-    <t xml:space="preserve">PICHAD DESHMUKH GIRIJA HEMANT MOHINI </t>
-  </si>
-  <si>
     <t>DHUMAL SAURABH RAMESH RAJASHREE</t>
   </si>
   <si>
-    <t>DSOUZA FLOSSIE JOACHIM RITA</t>
-  </si>
-  <si>
-    <t>DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</t>
-  </si>
-  <si>
-    <t>ERANDE TRUPTI UTTAM SUNITA</t>
-  </si>
-  <si>
     <t>GAMBHIRRAO MANISH HARISHCHANDRA RANJANA</t>
   </si>
   <si>
     <t>GANGANI ANKIT SURESH TEJAL</t>
   </si>
   <si>
-    <t>GANGURDE SAKSHI SUDHIR ASHA</t>
-  </si>
-  <si>
     <t>GHUMARE SANKET RAMESH JAYSHREE</t>
   </si>
   <si>
@@ -169,9 +124,6 @@
     <t>KHAN SAIF ALI NIZAM BILKIS</t>
   </si>
   <si>
-    <t>KOLGE VARDA DEEPAK AARTI</t>
-  </si>
-  <si>
     <t>KOLI PRATIK PRABHAKAR NALINI</t>
   </si>
   <si>
@@ -184,33 +136,15 @@
     <t>LATE VISHAL BALASAHEB PRAMILA</t>
   </si>
   <si>
-    <t xml:space="preserve">LOKE TEJAL JITENDRA GEETA </t>
-  </si>
-  <si>
-    <t>MANDAVKAR CHAITRALI SANJAY SUCHITA</t>
-  </si>
-  <si>
-    <t>MARCHANDE SHWETA SHANTARAM SHEETAL</t>
-  </si>
-  <si>
     <t>MHATRE VARAD GURUNATH SUSHMA</t>
   </si>
   <si>
-    <t>MISHRA RASHMI SHIVKANT PRATIBHA</t>
-  </si>
-  <si>
-    <t>NAIR ANAGHA ANANDKUMAR BHANUMATHI</t>
-  </si>
-  <si>
     <t xml:space="preserve">PANCHAL ANIKET AVINASH AARTI </t>
   </si>
   <si>
     <t>SHAIKH SAMEER MOHAMMADHUSSAIN FATIMA</t>
   </si>
   <si>
-    <t>SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</t>
-  </si>
-  <si>
     <t>SINGH ASHWIN BHAGWANPRASAD SADHANA</t>
   </si>
   <si>
@@ -223,105 +157,51 @@
     <t>AGATE AKASH PRAKASH KIRAN</t>
   </si>
   <si>
-    <t>AVHAD VISHAKHA MILIND RAKHI</t>
-  </si>
-  <si>
     <t>CHILE VARAD KISHOR NEHA</t>
   </si>
   <si>
     <t>DALVI AKASH SHANKAR NIRMALA</t>
   </si>
   <si>
-    <t>DALVI RUTUJA JAGDISH SUPRIYA</t>
-  </si>
-  <si>
     <t xml:space="preserve">GANDHI BHAVIK AJAY HARSHA </t>
   </si>
   <si>
-    <t>GUNDU MEGHNA GUNASHALI SUJATHA</t>
-  </si>
-  <si>
     <t>GUPTA AAYUSH NEELKAMAL MANSHA</t>
   </si>
   <si>
     <t>GUPTA PRAMOD OMPRAKASH RAMAVATI</t>
   </si>
   <si>
-    <t>JADHAV SHWETA NARESH LATA</t>
-  </si>
-  <si>
     <t>INGLE ATHARAVA SHASHIKANT SAILEE</t>
   </si>
   <si>
-    <t>KEMPU VIDYA LAXMAN SHANTAMMA</t>
-  </si>
-  <si>
-    <t>KHADE VRUSHALEE SUKHADEV RAJASHREE</t>
-  </si>
-  <si>
     <t>KUSHWAHA PRAMOD RAMSAKHA ASHA</t>
   </si>
   <si>
-    <t>MAURYA NEHA JAYSHANKAR GEETA</t>
-  </si>
-  <si>
     <t>PANCHAL SWAPNIL SATYAWAN MANASI</t>
   </si>
   <si>
-    <t>PANDYA VANESHA EDWIN SHASHMIRA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PATEKAR RUPESH GANESH MANJULA </t>
   </si>
   <si>
     <t>PATEL PRAGNESH KISHORBHAI DAMYANTIBEN</t>
   </si>
   <si>
-    <t>PATIL CHAITALEE NARESH NAMITA</t>
-  </si>
-  <si>
-    <t>PEDNEKAR MADHUGANDHA DILIP DEEPALI</t>
-  </si>
-  <si>
-    <t>PHANSE SAILEE VINOD LEELA</t>
-  </si>
-  <si>
     <t>PRASAD ROHAN RAJENDRA RAJKUMARI</t>
   </si>
   <si>
     <t>RAI JAYESH RAVINDRANATH DIVYA</t>
   </si>
   <si>
-    <t>RANE ASHWINI SANTOSH SAVITA</t>
-  </si>
-  <si>
-    <t>RANE MAYURI SUHAS ARCHANA</t>
-  </si>
-  <si>
-    <t>RAORANE SAINI SATISH SANCHITA</t>
-  </si>
-  <si>
     <t>RATHOD OMKAR PANDIT DEVIKA</t>
   </si>
   <si>
     <t>SANGLE SINDHANT NAVANATH PRATIBHA</t>
   </si>
   <si>
-    <t>SARMALKAR SANIKA SUNILDATTA MANISHA</t>
-  </si>
-  <si>
-    <t>SATAM NEHA ANIL ASMITA</t>
-  </si>
-  <si>
     <t>SAWANT AVADHUT RAJAN SHRADDHA</t>
   </si>
   <si>
-    <t>SHARMA PALAK PRAHLAD MRIDULA</t>
-  </si>
-  <si>
-    <t>SHETTY SHIFALI PRASHANT ASHALATA</t>
-  </si>
-  <si>
     <t>SHINDE AKSHAY SURENDRA SUPRIYA</t>
   </si>
   <si>
@@ -340,33 +220,18 @@
     <t>SHITYALKAR SHUBHAM DHONDIBA SHALAN</t>
   </si>
   <si>
-    <t>SHIVKAR PRIYANKA JANARDHAN REKHA</t>
-  </si>
-  <si>
     <t>SHRIGADI ROHIT DHARMENDRA RUPA</t>
   </si>
   <si>
     <t>SINGH PRATIK SANJAY MEENA</t>
   </si>
   <si>
-    <t>SINGH VARSHA GURUPRASAD VEENA</t>
-  </si>
-  <si>
     <t>SOLANKI PRAKASH RAMESH SUREKHA</t>
   </si>
   <si>
-    <t>SURYAVANSHI MAYURI DILIP BHAGIRATHI</t>
-  </si>
-  <si>
-    <t>SWAMY VIOLET BENEDICT JULIET</t>
-  </si>
-  <si>
     <t xml:space="preserve">TAKKE SAIRAJ SURESH SHRUTIKA </t>
   </si>
   <si>
-    <t>TALELE BHOOMA GHANASHYAM KALPANA</t>
-  </si>
-  <si>
     <t>THOOLKAR SAMEER ARVIND KIRAN</t>
   </si>
   <si>
@@ -379,321 +244,12 @@
     <t>VHAVALE YOGESH VIJANAND ANITA</t>
   </si>
   <si>
-    <t>VICHARE SAMRUDHI SANJAY VAIBHAVI</t>
-  </si>
-  <si>
-    <t>WAGHMARE SHEETAL SURYAKANT SUNANDA</t>
-  </si>
-  <si>
     <t>WANI SHUBHAM RAJENDRA  JYOTI</t>
   </si>
   <si>
-    <t>YADAV ANKITA OMPRAKASH SHASHANK DEVI</t>
-  </si>
-  <si>
     <t>YADAV ANUSH MAHANTA MALTI</t>
   </si>
   <si>
-    <t>YADAV SUMAN RAMJEET SAVITRIDEVI</t>
-  </si>
-  <si>
-    <t>MMS18-20/1</t>
-  </si>
-  <si>
-    <t>MMS18-20/2</t>
-  </si>
-  <si>
-    <t>MMS18-20/3</t>
-  </si>
-  <si>
-    <t>MMS18-20/4</t>
-  </si>
-  <si>
-    <t>MMS18-20/5</t>
-  </si>
-  <si>
-    <t>MMS18-20/6</t>
-  </si>
-  <si>
-    <t>MMS18-20/7</t>
-  </si>
-  <si>
-    <t>MMS18-20/8</t>
-  </si>
-  <si>
-    <t>MMS18-20/9</t>
-  </si>
-  <si>
-    <t>MMS18-20/10</t>
-  </si>
-  <si>
-    <t>MMS18-20/11</t>
-  </si>
-  <si>
-    <t>MMS18-20/12</t>
-  </si>
-  <si>
-    <t>MMS18-20/13</t>
-  </si>
-  <si>
-    <t>MMS18-20/14</t>
-  </si>
-  <si>
-    <t>MMS18-20/15</t>
-  </si>
-  <si>
-    <t>MMS18-20/16</t>
-  </si>
-  <si>
-    <t>MMS18-20/17</t>
-  </si>
-  <si>
-    <t>MMS18-20/18</t>
-  </si>
-  <si>
-    <t>MMS18-20/19</t>
-  </si>
-  <si>
-    <t>MMS18-20/20</t>
-  </si>
-  <si>
-    <t>MMS18-20/21</t>
-  </si>
-  <si>
-    <t>MMS18-20/22</t>
-  </si>
-  <si>
-    <t>MMS18-20/23</t>
-  </si>
-  <si>
-    <t>MMS18-20/24</t>
-  </si>
-  <si>
-    <t>MMS18-20/25</t>
-  </si>
-  <si>
-    <t>MMS18-20/26</t>
-  </si>
-  <si>
-    <t>MMS18-20/27</t>
-  </si>
-  <si>
-    <t>MMS18-20/28</t>
-  </si>
-  <si>
-    <t>MMS18-20/29</t>
-  </si>
-  <si>
-    <t>MMS18-20/30</t>
-  </si>
-  <si>
-    <t>MMS18-20/31</t>
-  </si>
-  <si>
-    <t>MMS18-20/32</t>
-  </si>
-  <si>
-    <t>MMS18-20/33</t>
-  </si>
-  <si>
-    <t>MMS18-20/34</t>
-  </si>
-  <si>
-    <t>MMS18-20/35</t>
-  </si>
-  <si>
-    <t>MMS18-20/36</t>
-  </si>
-  <si>
-    <t>MMS18-20/37</t>
-  </si>
-  <si>
-    <t>MMS18-20/38</t>
-  </si>
-  <si>
-    <t>MMS18-20/39</t>
-  </si>
-  <si>
-    <t>MMS18-20/40</t>
-  </si>
-  <si>
-    <t>MMS18-20/41</t>
-  </si>
-  <si>
-    <t>MMS18-20/42</t>
-  </si>
-  <si>
-    <t>MMS18-20/43</t>
-  </si>
-  <si>
-    <t>MMS18-20/44</t>
-  </si>
-  <si>
-    <t>MMS18-20/45</t>
-  </si>
-  <si>
-    <t>MMS18-20/46</t>
-  </si>
-  <si>
-    <t>MMS18-20/47</t>
-  </si>
-  <si>
-    <t>MMS18-20/48</t>
-  </si>
-  <si>
-    <t>MMS18-20/49</t>
-  </si>
-  <si>
-    <t>MMS18-20/50</t>
-  </si>
-  <si>
-    <t>MMS18-20/51</t>
-  </si>
-  <si>
-    <t>MMS18-20/52</t>
-  </si>
-  <si>
-    <t>MMS18-20/53</t>
-  </si>
-  <si>
-    <t>MMS18-20/54</t>
-  </si>
-  <si>
-    <t>MMS18-20/55</t>
-  </si>
-  <si>
-    <t>MMS18-20/56</t>
-  </si>
-  <si>
-    <t>MMS18-20/57</t>
-  </si>
-  <si>
-    <t>MMS18-20/58</t>
-  </si>
-  <si>
-    <t>MMS18-20/59</t>
-  </si>
-  <si>
-    <t>MMS18-20/60</t>
-  </si>
-  <si>
-    <t>MMS18-20/61</t>
-  </si>
-  <si>
-    <t>MMS18-20/62</t>
-  </si>
-  <si>
-    <t>MMS18-20/63</t>
-  </si>
-  <si>
-    <t>MMS18-20/64</t>
-  </si>
-  <si>
-    <t>MMS18-20/65</t>
-  </si>
-  <si>
-    <t>MMS18-20/66</t>
-  </si>
-  <si>
-    <t>MMS18-20/67</t>
-  </si>
-  <si>
-    <t>MMS18-20/68</t>
-  </si>
-  <si>
-    <t>MMS18-20/69</t>
-  </si>
-  <si>
-    <t>MMS18-20/70</t>
-  </si>
-  <si>
-    <t>MMS18-20/71</t>
-  </si>
-  <si>
-    <t>MMS18-20/72</t>
-  </si>
-  <si>
-    <t>MMS18-20/73</t>
-  </si>
-  <si>
-    <t>MMS18-20/74</t>
-  </si>
-  <si>
-    <t>MMS18-20/75</t>
-  </si>
-  <si>
-    <t>MMS18-20/76</t>
-  </si>
-  <si>
-    <t>MMS18-20/77</t>
-  </si>
-  <si>
-    <t>MMS18-20/78</t>
-  </si>
-  <si>
-    <t>MMS18-20/79</t>
-  </si>
-  <si>
-    <t>MMS18-20/80</t>
-  </si>
-  <si>
-    <t>MMS18-20/81</t>
-  </si>
-  <si>
-    <t>MMS18-20/82</t>
-  </si>
-  <si>
-    <t>MMS18-20/83</t>
-  </si>
-  <si>
-    <t>MMS18-20/84</t>
-  </si>
-  <si>
-    <t>MMS18-20/85</t>
-  </si>
-  <si>
-    <t>MMS18-20/86</t>
-  </si>
-  <si>
-    <t>MMS18-20/87</t>
-  </si>
-  <si>
-    <t>MMS18-20/88</t>
-  </si>
-  <si>
-    <t>MMS18-20/89</t>
-  </si>
-  <si>
-    <t>MMS18-20/90</t>
-  </si>
-  <si>
-    <t>MMS18-20/91</t>
-  </si>
-  <si>
-    <t>MMS18-20/92</t>
-  </si>
-  <si>
-    <t>MMS18-20/93</t>
-  </si>
-  <si>
-    <t>MMS18-20/94</t>
-  </si>
-  <si>
-    <t>MMS18-20/95</t>
-  </si>
-  <si>
-    <t>MMS18-20/96</t>
-  </si>
-  <si>
-    <t>MMS18-20/97</t>
-  </si>
-  <si>
-    <t>MMS18-20/98</t>
-  </si>
-  <si>
-    <t>MMS18-20/99</t>
-  </si>
-  <si>
     <t>MMS18-20/100</t>
   </si>
   <si>
@@ -794,6 +350,450 @@
   </si>
   <si>
     <t>MMS18-20/133</t>
+  </si>
+  <si>
+    <t>/ADIVAREKAR PRITI GIRIGHAR NAMRATA</t>
+  </si>
+  <si>
+    <t>/AMIN MEENAL PRAVIN ANITA</t>
+  </si>
+  <si>
+    <t>MMS18-20/001</t>
+  </si>
+  <si>
+    <t>MMS18-20/002</t>
+  </si>
+  <si>
+    <t>MMS18-20/003</t>
+  </si>
+  <si>
+    <t>MMS18-20/004</t>
+  </si>
+  <si>
+    <t>MMS18-20/005</t>
+  </si>
+  <si>
+    <t>MMS18-20/006</t>
+  </si>
+  <si>
+    <t>MMS18-20/007</t>
+  </si>
+  <si>
+    <t>MMS18-20/008</t>
+  </si>
+  <si>
+    <t>MMS18-20/009</t>
+  </si>
+  <si>
+    <t>MMS18-20/010</t>
+  </si>
+  <si>
+    <t>MMS18-20/011</t>
+  </si>
+  <si>
+    <t>MMS18-20/012</t>
+  </si>
+  <si>
+    <t>MMS18-20/013</t>
+  </si>
+  <si>
+    <t>MMS18-20/014</t>
+  </si>
+  <si>
+    <t>MMS18-20/015</t>
+  </si>
+  <si>
+    <t>MMS18-20/016</t>
+  </si>
+  <si>
+    <t>MMS18-20/017</t>
+  </si>
+  <si>
+    <t>MMS18-20/018</t>
+  </si>
+  <si>
+    <t>MMS18-20/019</t>
+  </si>
+  <si>
+    <t>MMS18-20/020</t>
+  </si>
+  <si>
+    <t>MMS18-20/021</t>
+  </si>
+  <si>
+    <t>MMS18-20/022</t>
+  </si>
+  <si>
+    <t>MMS18-20/023</t>
+  </si>
+  <si>
+    <t>MMS18-20/024</t>
+  </si>
+  <si>
+    <t>MMS18-20/025</t>
+  </si>
+  <si>
+    <t>MMS18-20/026</t>
+  </si>
+  <si>
+    <t>MMS18-20/027</t>
+  </si>
+  <si>
+    <t>MMS18-20/028</t>
+  </si>
+  <si>
+    <t>MMS18-20/029</t>
+  </si>
+  <si>
+    <t>MMS18-20/030</t>
+  </si>
+  <si>
+    <t>MMS18-20/031</t>
+  </si>
+  <si>
+    <t>MMS18-20/032</t>
+  </si>
+  <si>
+    <t>MMS18-20/033</t>
+  </si>
+  <si>
+    <t>MMS18-20/034</t>
+  </si>
+  <si>
+    <t>MMS18-20/035</t>
+  </si>
+  <si>
+    <t>MMS18-20/036</t>
+  </si>
+  <si>
+    <t>MMS18-20/037</t>
+  </si>
+  <si>
+    <t>MMS18-20/038</t>
+  </si>
+  <si>
+    <t>MMS18-20/039</t>
+  </si>
+  <si>
+    <t>MMS18-20/040</t>
+  </si>
+  <si>
+    <t>MMS18-20/041</t>
+  </si>
+  <si>
+    <t>MMS18-20/042</t>
+  </si>
+  <si>
+    <t>MMS18-20/043</t>
+  </si>
+  <si>
+    <t>MMS18-20/044</t>
+  </si>
+  <si>
+    <t>MMS18-20/045</t>
+  </si>
+  <si>
+    <t>MMS18-20/046</t>
+  </si>
+  <si>
+    <t>MMS18-20/047</t>
+  </si>
+  <si>
+    <t>MMS18-20/048</t>
+  </si>
+  <si>
+    <t>MMS18-20/049</t>
+  </si>
+  <si>
+    <t>MMS18-20/050</t>
+  </si>
+  <si>
+    <t>MMS18-20/051</t>
+  </si>
+  <si>
+    <t>MMS18-20/052</t>
+  </si>
+  <si>
+    <t>MMS18-20/053</t>
+  </si>
+  <si>
+    <t>MMS18-20/054</t>
+  </si>
+  <si>
+    <t>MMS18-20/055</t>
+  </si>
+  <si>
+    <t>MMS18-20/056</t>
+  </si>
+  <si>
+    <t>MMS18-20/057</t>
+  </si>
+  <si>
+    <t>MMS18-20/058</t>
+  </si>
+  <si>
+    <t>MMS18-20/059</t>
+  </si>
+  <si>
+    <t>MMS18-20/060</t>
+  </si>
+  <si>
+    <t>MMS18-20/061</t>
+  </si>
+  <si>
+    <t>MMS18-20/062</t>
+  </si>
+  <si>
+    <t>MMS18-20/063</t>
+  </si>
+  <si>
+    <t>MMS18-20/064</t>
+  </si>
+  <si>
+    <t>MMS18-20/065</t>
+  </si>
+  <si>
+    <t>MMS18-20/066</t>
+  </si>
+  <si>
+    <t>MMS18-20/067</t>
+  </si>
+  <si>
+    <t>MMS18-20/068</t>
+  </si>
+  <si>
+    <t>MMS18-20/069</t>
+  </si>
+  <si>
+    <t>MMS18-20/070</t>
+  </si>
+  <si>
+    <t>MMS18-20/071</t>
+  </si>
+  <si>
+    <t>MMS18-20/072</t>
+  </si>
+  <si>
+    <t>MMS18-20/073</t>
+  </si>
+  <si>
+    <t>MMS18-20/074</t>
+  </si>
+  <si>
+    <t>MMS18-20/075</t>
+  </si>
+  <si>
+    <t>MMS18-20/076</t>
+  </si>
+  <si>
+    <t>MMS18-20/077</t>
+  </si>
+  <si>
+    <t>MMS18-20/078</t>
+  </si>
+  <si>
+    <t>MMS18-20/079</t>
+  </si>
+  <si>
+    <t>MMS18-20/080</t>
+  </si>
+  <si>
+    <t>MMS18-20/081</t>
+  </si>
+  <si>
+    <t>MMS18-20/082</t>
+  </si>
+  <si>
+    <t>MMS18-20/083</t>
+  </si>
+  <si>
+    <t>MMS18-20/084</t>
+  </si>
+  <si>
+    <t>MMS18-20/085</t>
+  </si>
+  <si>
+    <t>MMS18-20/086</t>
+  </si>
+  <si>
+    <t>MMS18-20/087</t>
+  </si>
+  <si>
+    <t>MMS18-20/088</t>
+  </si>
+  <si>
+    <t>MMS18-20/089</t>
+  </si>
+  <si>
+    <t>MMS18-20/090</t>
+  </si>
+  <si>
+    <t>MMS18-20/091</t>
+  </si>
+  <si>
+    <t>MMS18-20/092</t>
+  </si>
+  <si>
+    <t>MMS18-20/093</t>
+  </si>
+  <si>
+    <t>MMS18-20/094</t>
+  </si>
+  <si>
+    <t>MMS18-20/095</t>
+  </si>
+  <si>
+    <t>MMS18-20/096</t>
+  </si>
+  <si>
+    <t>MMS18-20/097</t>
+  </si>
+  <si>
+    <t>MMS18-20/098</t>
+  </si>
+  <si>
+    <t>MMS18-20/099</t>
+  </si>
+  <si>
+    <t>/YADAV SUMAN RAMJEET SAVITRIDEVI</t>
+  </si>
+  <si>
+    <t>/YADAV ANKITA OMPRAKASH SHASHANK DEVI</t>
+  </si>
+  <si>
+    <t>/WAGHMARE SHEETAL SURYAKANT SUNANDA</t>
+  </si>
+  <si>
+    <t>/VICHARE SAMRUDHI SANJAY VAIBHAVI</t>
+  </si>
+  <si>
+    <t>/TALELE BHOOMA GHANASHYAM KALPANA</t>
+  </si>
+  <si>
+    <t>/SWAMY VIOLET BENEDICT JULIET</t>
+  </si>
+  <si>
+    <t>/SURYAVANSHI MAYURI DILIP BHAGIRATHI</t>
+  </si>
+  <si>
+    <t>/SINGH VARSHA GURUPRASAD VEENA</t>
+  </si>
+  <si>
+    <t>/SHIVKAR PRIYANKA JANARDHAN REKHA</t>
+  </si>
+  <si>
+    <t>/SHETTY SHIFALI PRASHANT ASHALATA</t>
+  </si>
+  <si>
+    <t>/SHARMA PALAK PRAHLAD MRIDULA</t>
+  </si>
+  <si>
+    <t>/SATAM NEHA ANIL ASMITA</t>
+  </si>
+  <si>
+    <t>/SARMALKAR SANIKA SUNILDATTA MANISHA</t>
+  </si>
+  <si>
+    <t>/RAORANE SAINI SATISH SANCHITA</t>
+  </si>
+  <si>
+    <t>/RANE MAYURI SUHAS ARCHANA</t>
+  </si>
+  <si>
+    <t>/RANE ASHWINI SANTOSH SAVITA</t>
+  </si>
+  <si>
+    <t>/PHANSE SAILEE VINOD LEELA</t>
+  </si>
+  <si>
+    <t>/PEDNEKAR MADHUGANDHA DILIP DEEPALI</t>
+  </si>
+  <si>
+    <t>/PATIL CHAITALEE NARESH NAMITA</t>
+  </si>
+  <si>
+    <t>/PANDYA VANESHA EDWIN SHASHMIRA</t>
+  </si>
+  <si>
+    <t>/MAURYA NEHA JAYSHANKAR GEETA</t>
+  </si>
+  <si>
+    <t>/KHADE VRUSHALEE SUKHADEV RAJASHREE</t>
+  </si>
+  <si>
+    <t>/KEMPU VIDYA LAXMAN SHANTAMMA</t>
+  </si>
+  <si>
+    <t>/JADHAV SHWETA NARESH LATA</t>
+  </si>
+  <si>
+    <t>/GUNDU MEGHNA GUNASHALI SUJATHA</t>
+  </si>
+  <si>
+    <t>/DALVI RUTUJA JAGDISH SUPRIYA</t>
+  </si>
+  <si>
+    <t>/AVHAD VISHAKHA MILIND RAKHI</t>
+  </si>
+  <si>
+    <t>/SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</t>
+  </si>
+  <si>
+    <t>/NAIR ANAGHA ANANDKUMAR BHANUMATHI</t>
+  </si>
+  <si>
+    <t>/MISHRA RASHMI SHIVKANT PRATIBHA</t>
+  </si>
+  <si>
+    <t>/MARCHANDE SHWETA SHANTARAM SHEETAL</t>
+  </si>
+  <si>
+    <t>/MANDAVKAR CHAITRALI SANJAY SUCHITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/LOKE TEJAL JITENDRA GEETA </t>
+  </si>
+  <si>
+    <t>/KOLGE VARDA DEEPAK AARTI</t>
+  </si>
+  <si>
+    <t>/GANGURDE SAKSHI SUDHIR ASHA</t>
+  </si>
+  <si>
+    <t>/ERANDE TRUPTI UTTAM SUNITA</t>
+  </si>
+  <si>
+    <t>/DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</t>
+  </si>
+  <si>
+    <t>/DSOUZA FLOSSIE JOACHIM RITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/PICHAD DESHMUKH GIRIJA HEMANT MOHINI </t>
+  </si>
+  <si>
+    <t>/CHAWHAN SAMTA VIJAY SUNITA</t>
+  </si>
+  <si>
+    <t>/CHANDORKAR PRAJAL MADHUKAR VANITA</t>
+  </si>
+  <si>
+    <t>/BIDVI ABOLI AJENDRA NEHA</t>
+  </si>
+  <si>
+    <t>/BHATKAR ANAGHA ANIL AKSHATA</t>
+  </si>
+  <si>
+    <t>/BHAJANI DHANASHREE MANOHAR KAVITA</t>
+  </si>
+  <si>
+    <t>/BANSODE NAMRATA SUHAS SANGEETA</t>
+  </si>
+  <si>
+    <t>/BAMANE RENUKA UTTAM SUNITA</t>
+  </si>
+  <si>
+    <t>/ARANJO JULIANA MICHAEL LEENA</t>
   </si>
 </sst>
 </file>
@@ -2124,56 +2124,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>79414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>844512</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="614" name="Picture 613">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{167415D2-1EF9-4823-944A-F3D9DEE04A63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3225800" y="24291964"/>
-          <a:ext cx="635000" cy="765098"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>54935</xdr:rowOff>
     </xdr:from>
@@ -2197,7 +2147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2247,7 +2197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2297,7 +2247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2347,7 +2297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2397,7 +2347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2447,7 +2397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2497,7 +2447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2547,7 +2497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2597,7 +2547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2647,7 +2597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2697,7 +2647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2747,7 +2697,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2797,7 +2747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2847,7 +2797,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2897,7 +2847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2947,7 +2897,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2973,15 +2923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>41312</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>882614</xdr:rowOff>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>3212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>844514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2997,20 +2947,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3225800" y="40884512"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4140200" y="54705287"/>
           <a:ext cx="635000" cy="841302"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3047,7 +2997,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3097,7 +3047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3147,7 +3097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3197,7 +3147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3247,7 +3197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3297,7 +3247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3347,7 +3297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3397,7 +3347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3447,7 +3397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3497,7 +3447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3547,7 +3497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3597,7 +3547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3647,7 +3597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3697,7 +3647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3723,15 +3673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>64021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>859907</xdr:rowOff>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>73546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>869432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3747,20 +3697,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3225800" y="54766096"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4121150" y="40916746"/>
           <a:ext cx="635000" cy="795886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3797,7 +3747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3847,7 +3797,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3897,7 +3847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3947,7 +3897,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3997,7 +3947,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4047,7 +3997,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4097,7 +4047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4147,7 +4097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4197,7 +4147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4247,7 +4197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4297,7 +4247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4347,7 +4297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4397,7 +4347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4447,7 +4397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4497,7 +4447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4547,7 +4497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4597,7 +4547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4647,7 +4597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4697,7 +4647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4747,7 +4697,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4797,7 +4747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4847,7 +4797,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4897,7 +4847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4947,7 +4897,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4997,7 +4947,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5047,7 +4997,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5097,7 +5047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5147,7 +5097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5197,7 +5147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5247,7 +5197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5297,7 +5247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5347,7 +5297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5397,7 +5347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5447,7 +5397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5497,7 +5447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5547,7 +5497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5597,7 +5547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5647,7 +5597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5697,7 +5647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5747,7 +5697,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5797,7 +5747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5847,7 +5797,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5897,7 +5847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5947,7 +5897,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5997,7 +5947,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6047,7 +5997,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6097,7 +6047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6147,7 +6097,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6197,7 +6147,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6247,7 +6197,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6297,7 +6247,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6347,7 +6297,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6397,7 +6347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6447,7 +6397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6497,7 +6447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6547,7 +6497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6597,7 +6547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6647,7 +6597,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6697,7 +6647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7045,7 +6995,7 @@
     </row>
     <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -7056,10 +7006,10 @@
     </row>
     <row r="3" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2">
         <v>1820002</v>
@@ -7067,10 +7017,10 @@
     </row>
     <row r="4" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>1820003</v>
@@ -7078,10 +7028,10 @@
     </row>
     <row r="5" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2">
         <v>1820004</v>
@@ -7089,10 +7039,10 @@
     </row>
     <row r="6" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>254</v>
       </c>
       <c r="C6" s="2">
         <v>1820005</v>
@@ -7100,10 +7050,10 @@
     </row>
     <row r="7" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>1820006</v>
@@ -7111,10 +7061,10 @@
     </row>
     <row r="8" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="C8" s="2">
         <v>1820007</v>
@@ -7122,10 +7072,10 @@
     </row>
     <row r="9" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="C9" s="2">
         <v>1820008</v>
@@ -7133,10 +7083,10 @@
     </row>
     <row r="10" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2">
         <v>1820009</v>
@@ -7144,10 +7094,10 @@
     </row>
     <row r="11" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>1820010</v>
@@ -7155,10 +7105,10 @@
     </row>
     <row r="12" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="C12" s="2">
         <v>1820011</v>
@@ -7166,10 +7116,10 @@
     </row>
     <row r="13" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>1820012</v>
@@ -7177,10 +7127,10 @@
     </row>
     <row r="14" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>1820013</v>
@@ -7188,10 +7138,10 @@
     </row>
     <row r="15" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>1820014</v>
@@ -7199,10 +7149,10 @@
     </row>
     <row r="16" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="C16" s="2">
         <v>1820015</v>
@@ -7210,10 +7160,10 @@
     </row>
     <row r="17" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>1820016</v>
@@ -7221,10 +7171,10 @@
     </row>
     <row r="18" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
       <c r="C18" s="2">
         <v>1820017</v>
@@ -7232,10 +7182,10 @@
     </row>
     <row r="19" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2">
         <v>1820018</v>
@@ -7243,10 +7193,10 @@
     </row>
     <row r="20" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2">
         <v>1820019</v>
@@ -7254,10 +7204,10 @@
     </row>
     <row r="21" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="C21" s="2">
         <v>1820020</v>
@@ -7265,10 +7215,10 @@
     </row>
     <row r="22" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>1820021</v>
@@ -7276,7 +7226,7 @@
     </row>
     <row r="23" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -7287,10 +7237,10 @@
     </row>
     <row r="24" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="C24" s="2">
         <v>1820023</v>
@@ -7298,10 +7248,10 @@
     </row>
     <row r="25" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2">
         <v>1820024</v>
@@ -7309,10 +7259,10 @@
     </row>
     <row r="26" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2">
         <v>1820025</v>
@@ -7320,10 +7270,10 @@
     </row>
     <row r="27" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2">
         <v>1820026</v>
@@ -7331,10 +7281,10 @@
     </row>
     <row r="28" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2">
         <v>1820027</v>
@@ -7342,10 +7292,10 @@
     </row>
     <row r="29" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2">
         <v>1820028</v>
@@ -7353,10 +7303,10 @@
     </row>
     <row r="30" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>1820029</v>
@@ -7364,10 +7314,10 @@
     </row>
     <row r="31" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="C31" s="2">
         <v>1820030</v>
@@ -7375,10 +7325,10 @@
     </row>
     <row r="32" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2">
         <v>1820031</v>
@@ -7386,10 +7336,10 @@
     </row>
     <row r="33" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2">
         <v>1820032</v>
@@ -7397,10 +7347,10 @@
     </row>
     <row r="34" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
         <v>1820033</v>
@@ -7408,10 +7358,10 @@
     </row>
     <row r="35" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2">
         <v>1820034</v>
@@ -7419,10 +7369,10 @@
     </row>
     <row r="36" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2">
         <v>1820035</v>
@@ -7430,10 +7380,10 @@
     </row>
     <row r="37" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2">
         <v>1820036</v>
@@ -7441,10 +7391,10 @@
     </row>
     <row r="38" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2">
         <v>1820037</v>
@@ -7452,10 +7402,10 @@
     </row>
     <row r="39" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2">
         <v>1820038</v>
@@ -7463,10 +7413,10 @@
     </row>
     <row r="40" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2">
         <v>1820039</v>
@@ -7474,10 +7424,10 @@
     </row>
     <row r="41" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C41" s="2">
         <v>1820040</v>
@@ -7485,10 +7435,10 @@
     </row>
     <row r="42" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2">
         <v>1820041</v>
@@ -7496,10 +7446,10 @@
     </row>
     <row r="43" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2">
         <v>1820042</v>
@@ -7507,7 +7457,7 @@
     </row>
     <row r="44" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
@@ -7518,10 +7468,10 @@
     </row>
     <row r="45" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="C45" s="2">
         <v>1820044</v>
@@ -7529,10 +7479,10 @@
     </row>
     <row r="46" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2">
         <v>1820045</v>
@@ -7540,10 +7490,10 @@
     </row>
     <row r="47" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2">
         <v>1820046</v>
@@ -7551,10 +7501,10 @@
     </row>
     <row r="48" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C48" s="2">
         <v>1820047</v>
@@ -7562,10 +7512,10 @@
     </row>
     <row r="49" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C49" s="2">
         <v>1820048</v>
@@ -7573,10 +7523,10 @@
     </row>
     <row r="50" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="C50" s="2">
         <v>1820049</v>
@@ -7584,10 +7534,10 @@
     </row>
     <row r="51" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2">
         <v>1820050</v>
@@ -7595,10 +7545,10 @@
     </row>
     <row r="52" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="C52" s="2">
         <v>1820051</v>
@@ -7606,10 +7556,10 @@
     </row>
     <row r="53" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C53" s="2">
         <v>1820052</v>
@@ -7617,10 +7567,10 @@
     </row>
     <row r="54" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="C54" s="2">
         <v>1820053</v>
@@ -7628,10 +7578,10 @@
     </row>
     <row r="55" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="C55" s="2">
         <v>1820054</v>
@@ -7639,10 +7589,10 @@
     </row>
     <row r="56" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2">
         <v>1820055</v>
@@ -7650,10 +7600,10 @@
     </row>
     <row r="57" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C57" s="2">
         <v>1820056</v>
@@ -7661,10 +7611,10 @@
     </row>
     <row r="58" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>235</v>
       </c>
       <c r="C58" s="2">
         <v>1820057</v>
@@ -7672,10 +7622,10 @@
     </row>
     <row r="59" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2">
         <v>1820058</v>
@@ -7683,10 +7633,10 @@
     </row>
     <row r="60" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2">
         <v>1820059</v>
@@ -7694,10 +7644,10 @@
     </row>
     <row r="61" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2">
         <v>1820060</v>
@@ -7705,10 +7655,10 @@
     </row>
     <row r="62" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2">
         <v>1820061</v>
@@ -7716,10 +7666,10 @@
     </row>
     <row r="63" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="C63" s="2">
         <v>1820062</v>
@@ -7727,10 +7677,10 @@
     </row>
     <row r="64" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2">
         <v>1820063</v>
@@ -7738,10 +7688,10 @@
     </row>
     <row r="65" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2">
         <v>1820064</v>
@@ -7749,10 +7699,10 @@
     </row>
     <row r="66" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="C66" s="2">
         <v>1820065</v>
@@ -7760,10 +7710,10 @@
     </row>
     <row r="67" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2">
         <v>1820066</v>
@@ -7771,10 +7721,10 @@
     </row>
     <row r="68" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="C68" s="2">
         <v>1820067</v>
@@ -7782,10 +7732,10 @@
     </row>
     <row r="69" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2">
         <v>1820068</v>
@@ -7793,10 +7743,10 @@
     </row>
     <row r="70" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2">
         <v>1820069</v>
@@ -7804,10 +7754,10 @@
     </row>
     <row r="71" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>231</v>
       </c>
       <c r="C71" s="2">
         <v>1820070</v>
@@ -7815,10 +7765,10 @@
     </row>
     <row r="72" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2">
         <v>1820071</v>
@@ -7826,10 +7776,10 @@
     </row>
     <row r="73" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C73" s="2">
         <v>1820072</v>
@@ -7837,10 +7787,10 @@
     </row>
     <row r="74" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="C74" s="2">
         <v>1820073</v>
@@ -7848,10 +7798,10 @@
     </row>
     <row r="75" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2">
         <v>1820074</v>
@@ -7859,10 +7809,10 @@
     </row>
     <row r="76" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="C76" s="2">
         <v>1820075</v>
@@ -7870,10 +7820,10 @@
     </row>
     <row r="77" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C77" s="2">
         <v>1820076</v>
@@ -7881,10 +7831,10 @@
     </row>
     <row r="78" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="C78" s="2">
         <v>1820077</v>
@@ -7892,10 +7842,10 @@
     </row>
     <row r="79" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2">
         <v>1820078</v>
@@ -7903,10 +7853,10 @@
     </row>
     <row r="80" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C80" s="2">
         <v>1820079</v>
@@ -7914,10 +7864,10 @@
     </row>
     <row r="81" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="C81" s="2">
         <v>1820080</v>
@@ -7925,10 +7875,10 @@
     </row>
     <row r="82" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="C82" s="2">
         <v>1820081</v>
@@ -7936,10 +7886,10 @@
     </row>
     <row r="83" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="C83" s="2">
         <v>1820082</v>
@@ -7947,10 +7897,10 @@
     </row>
     <row r="84" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2">
         <v>1820083</v>
@@ -7958,10 +7908,10 @@
     </row>
     <row r="85" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2">
         <v>1820084</v>
@@ -7969,10 +7919,10 @@
     </row>
     <row r="86" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="C86" s="2">
         <v>1820085</v>
@@ -7980,10 +7930,10 @@
     </row>
     <row r="87" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2">
         <v>1820086</v>
@@ -7991,10 +7941,10 @@
     </row>
     <row r="88" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="C88" s="2">
         <v>1820087</v>
@@ -8002,10 +7952,10 @@
     </row>
     <row r="89" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2">
         <v>1820088</v>
@@ -8013,10 +7963,10 @@
     </row>
     <row r="90" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2">
         <v>1820089</v>
@@ -8024,10 +7974,10 @@
     </row>
     <row r="91" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="C91" s="2">
         <v>1820090</v>
@@ -8035,10 +7985,10 @@
     </row>
     <row r="92" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="C92" s="2">
         <v>1820091</v>
@@ -8046,10 +7996,10 @@
     </row>
     <row r="93" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2">
         <v>1820092</v>
@@ -8057,10 +8007,10 @@
     </row>
     <row r="94" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="C94" s="2">
         <v>1820093</v>
@@ -8068,10 +8018,10 @@
     </row>
     <row r="95" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="C95" s="2">
         <v>1820094</v>
@@ -8079,10 +8029,10 @@
     </row>
     <row r="96" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2">
         <v>1820095</v>
@@ -8090,10 +8040,10 @@
     </row>
     <row r="97" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2">
         <v>1820096</v>
@@ -8101,10 +8051,10 @@
     </row>
     <row r="98" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C98" s="2">
         <v>1820097</v>
@@ -8112,10 +8062,10 @@
     </row>
     <row r="99" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2">
         <v>1820098</v>
@@ -8123,10 +8073,10 @@
     </row>
     <row r="100" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2">
         <v>1820099</v>
@@ -8134,10 +8084,10 @@
     </row>
     <row r="101" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2">
         <v>1820100</v>
@@ -8145,10 +8095,10 @@
     </row>
     <row r="102" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="C102" s="2">
         <v>1820101</v>
@@ -8156,10 +8106,10 @@
     </row>
     <row r="103" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2">
         <v>1820102</v>
@@ -8167,10 +8117,10 @@
     </row>
     <row r="104" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2">
         <v>1820103</v>
@@ -8178,10 +8128,10 @@
     </row>
     <row r="105" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="C105" s="2">
         <v>1820104</v>
@@ -8189,10 +8139,10 @@
     </row>
     <row r="106" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2">
         <v>1820105</v>
@@ -8200,10 +8150,10 @@
     </row>
     <row r="107" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="C107" s="2">
         <v>1820106</v>
@@ -8211,10 +8161,10 @@
     </row>
     <row r="108" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="C108" s="2">
         <v>1820107</v>
@@ -8222,10 +8172,10 @@
     </row>
     <row r="109" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2">
         <v>1820108</v>
@@ -8233,10 +8183,10 @@
     </row>
     <row r="110" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="C110" s="2">
         <v>1820109</v>
@@ -8244,10 +8194,10 @@
     </row>
     <row r="111" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="C111" s="2">
         <v>1820110</v>
@@ -8255,10 +8205,10 @@
     </row>
     <row r="112" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2">
         <v>1820111</v>
@@ -8266,10 +8216,10 @@
     </row>
     <row r="113" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C113" s="2">
         <v>1820112</v>
@@ -8277,10 +8227,10 @@
     </row>
     <row r="114" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C114" s="2">
         <v>1820113</v>
@@ -8288,10 +8238,10 @@
     </row>
     <row r="115" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="C115" s="2">
         <v>1820114</v>
@@ -8299,10 +8249,10 @@
     </row>
     <row r="116" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="C116" s="2">
         <v>1820115</v>
@@ -8310,10 +8260,10 @@
     </row>
     <row r="117" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C117" s="2">
         <v>1820116</v>
@@ -8321,10 +8271,10 @@
     </row>
     <row r="118" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="C118" s="2">
         <v>1820117</v>
@@ -8332,10 +8282,10 @@
     </row>
     <row r="119" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2">
         <v>1820118</v>
@@ -8343,10 +8293,10 @@
     </row>
     <row r="120" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="C120" s="2">
         <v>1820119</v>
@@ -8354,7 +8304,7 @@
     </row>
     <row r="121" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>3</v>
@@ -8365,7 +8315,7 @@
     </row>
     <row r="122" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>3</v>
@@ -8376,7 +8326,7 @@
     </row>
     <row r="123" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>3</v>
@@ -8387,7 +8337,7 @@
     </row>
     <row r="124" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>3</v>
@@ -8398,7 +8348,7 @@
     </row>
     <row r="125" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>3</v>
@@ -8409,7 +8359,7 @@
     </row>
     <row r="126" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>3</v>
@@ -8420,7 +8370,7 @@
     </row>
     <row r="127" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>3</v>
@@ -8431,7 +8381,7 @@
     </row>
     <row r="128" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>3</v>
@@ -8442,7 +8392,7 @@
     </row>
     <row r="129" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>3</v>
@@ -8453,7 +8403,7 @@
     </row>
     <row r="130" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>3</v>
@@ -8464,7 +8414,7 @@
     </row>
     <row r="131" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>3</v>
@@ -8475,7 +8425,7 @@
     </row>
     <row r="132" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
@@ -8486,7 +8436,7 @@
     </row>
     <row r="133" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3</v>
@@ -8497,7 +8447,7 @@
     </row>
     <row r="134" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>

--- a/Batch 2018-20/Sem 2/Students Database.xlsx
+++ b/Batch 2018-20/Sem 2/Students Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHUOBHAM MURUDKAR\Desktop\SIMSR-Results-Generator-master\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0157E3D-5D8C-4A9C-A984-9589F57F711C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5996C1-F432-4602-865A-021C64E72B3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6662,6 +6662,56 @@
         <a:xfrm>
           <a:off x="3230032" y="79673450"/>
           <a:ext cx="626536" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8288</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFB76BA-C41F-4A16-A2CE-8E70729772F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="24212550"/>
+          <a:ext cx="694088" cy="885825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6972,7 +7022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5826A716-B557-4E76-9620-9E98F48B9924}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Batch 2018-20/Sem 2/Students Database.xlsx
+++ b/Batch 2018-20/Sem 2/Students Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHUOBHAM MURUDKAR\Desktop\SIMSR-Results-Generator-master\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5996C1-F432-4602-865A-021C64E72B3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83AE81-7D10-4529-9A1D-AE00C2D1CB39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
   <si>
     <t>UIN</t>
   </si>
@@ -326,30 +326,6 @@
   </si>
   <si>
     <t>MMS18-20/125</t>
-  </si>
-  <si>
-    <t>MMS18-20/126</t>
-  </si>
-  <si>
-    <t>MMS18-20/127</t>
-  </si>
-  <si>
-    <t>MMS18-20/128</t>
-  </si>
-  <si>
-    <t>MMS18-20/129</t>
-  </si>
-  <si>
-    <t>MMS18-20/130</t>
-  </si>
-  <si>
-    <t>MMS18-20/131</t>
-  </si>
-  <si>
-    <t>MMS18-20/132</t>
-  </si>
-  <si>
-    <t>MMS18-20/133</t>
   </si>
   <si>
     <t>/ADIVAREKAR PRITI GIRIGHAR NAMRATA</t>
@@ -7020,11 +6996,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5826A716-B557-4E76-9620-9E98F48B9924}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7047,7 +7021,7 @@
     </row>
     <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -7058,10 +7032,10 @@
     </row>
     <row r="3" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2">
         <v>1820002</v>
@@ -7069,7 +7043,7 @@
     </row>
     <row r="4" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -7080,10 +7054,10 @@
     </row>
     <row r="5" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>1820004</v>
@@ -7091,10 +7065,10 @@
     </row>
     <row r="6" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C6" s="2">
         <v>1820005</v>
@@ -7102,7 +7076,7 @@
     </row>
     <row r="7" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -7113,10 +7087,10 @@
     </row>
     <row r="8" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C8" s="2">
         <v>1820007</v>
@@ -7124,10 +7098,10 @@
     </row>
     <row r="9" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C9" s="2">
         <v>1820008</v>
@@ -7135,10 +7109,10 @@
     </row>
     <row r="10" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2">
         <v>1820009</v>
@@ -7146,7 +7120,7 @@
     </row>
     <row r="11" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -7157,10 +7131,10 @@
     </row>
     <row r="12" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C12" s="2">
         <v>1820011</v>
@@ -7168,7 +7142,7 @@
     </row>
     <row r="13" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
@@ -7179,7 +7153,7 @@
     </row>
     <row r="14" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
@@ -7190,7 +7164,7 @@
     </row>
     <row r="15" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -7201,10 +7175,10 @@
     </row>
     <row r="16" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C16" s="2">
         <v>1820015</v>
@@ -7212,7 +7186,7 @@
     </row>
     <row r="17" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>12</v>
@@ -7223,10 +7197,10 @@
     </row>
     <row r="18" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C18" s="2">
         <v>1820017</v>
@@ -7234,7 +7208,7 @@
     </row>
     <row r="19" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -7245,7 +7219,7 @@
     </row>
     <row r="20" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -7256,10 +7230,10 @@
     </row>
     <row r="21" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2">
         <v>1820020</v>
@@ -7267,7 +7241,7 @@
     </row>
     <row r="22" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
@@ -7278,7 +7252,7 @@
     </row>
     <row r="23" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
@@ -7289,10 +7263,10 @@
     </row>
     <row r="24" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2">
         <v>1820023</v>
@@ -7300,7 +7274,7 @@
     </row>
     <row r="25" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -7311,10 +7285,10 @@
     </row>
     <row r="26" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2">
         <v>1820025</v>
@@ -7322,10 +7296,10 @@
     </row>
     <row r="27" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2">
         <v>1820026</v>
@@ -7333,10 +7307,10 @@
     </row>
     <row r="28" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2">
         <v>1820027</v>
@@ -7344,7 +7318,7 @@
     </row>
     <row r="29" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -7355,7 +7329,7 @@
     </row>
     <row r="30" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
@@ -7366,10 +7340,10 @@
     </row>
     <row r="31" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C31" s="2">
         <v>1820030</v>
@@ -7377,7 +7351,7 @@
     </row>
     <row r="32" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>19</v>
@@ -7388,7 +7362,7 @@
     </row>
     <row r="33" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>20</v>
@@ -7399,7 +7373,7 @@
     </row>
     <row r="34" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -7410,7 +7384,7 @@
     </row>
     <row r="35" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>22</v>
@@ -7421,7 +7395,7 @@
     </row>
     <row r="36" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>23</v>
@@ -7432,7 +7406,7 @@
     </row>
     <row r="37" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
@@ -7443,7 +7417,7 @@
     </row>
     <row r="38" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
@@ -7454,7 +7428,7 @@
     </row>
     <row r="39" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>26</v>
@@ -7465,7 +7439,7 @@
     </row>
     <row r="40" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>27</v>
@@ -7476,7 +7450,7 @@
     </row>
     <row r="41" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>28</v>
@@ -7487,7 +7461,7 @@
     </row>
     <row r="42" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>29</v>
@@ -7498,7 +7472,7 @@
     </row>
     <row r="43" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
@@ -7509,7 +7483,7 @@
     </row>
     <row r="44" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
@@ -7520,10 +7494,10 @@
     </row>
     <row r="45" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C45" s="2">
         <v>1820044</v>
@@ -7531,7 +7505,7 @@
     </row>
     <row r="46" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>31</v>
@@ -7542,7 +7516,7 @@
     </row>
     <row r="47" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>32</v>
@@ -7553,7 +7527,7 @@
     </row>
     <row r="48" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
@@ -7564,7 +7538,7 @@
     </row>
     <row r="49" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>34</v>
@@ -7575,10 +7549,10 @@
     </row>
     <row r="50" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C50" s="2">
         <v>1820049</v>
@@ -7586,10 +7560,10 @@
     </row>
     <row r="51" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C51" s="2">
         <v>1820050</v>
@@ -7597,10 +7571,10 @@
     </row>
     <row r="52" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2">
         <v>1820051</v>
@@ -7608,7 +7582,7 @@
     </row>
     <row r="53" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>35</v>
@@ -7619,10 +7593,10 @@
     </row>
     <row r="54" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C54" s="2">
         <v>1820053</v>
@@ -7630,10 +7604,10 @@
     </row>
     <row r="55" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C55" s="2">
         <v>1820054</v>
@@ -7641,7 +7615,7 @@
     </row>
     <row r="56" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>36</v>
@@ -7652,7 +7626,7 @@
     </row>
     <row r="57" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>37</v>
@@ -7663,10 +7637,10 @@
     </row>
     <row r="58" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C58" s="2">
         <v>1820057</v>
@@ -7674,7 +7648,7 @@
     </row>
     <row r="59" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>38</v>
@@ -7685,7 +7659,7 @@
     </row>
     <row r="60" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>39</v>
@@ -7696,7 +7670,7 @@
     </row>
     <row r="61" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>40</v>
@@ -7707,7 +7681,7 @@
     </row>
     <row r="62" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>41</v>
@@ -7718,10 +7692,10 @@
     </row>
     <row r="63" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2">
         <v>1820062</v>
@@ -7729,7 +7703,7 @@
     </row>
     <row r="64" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>42</v>
@@ -7740,7 +7714,7 @@
     </row>
     <row r="65" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>43</v>
@@ -7751,10 +7725,10 @@
     </row>
     <row r="66" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C66" s="2">
         <v>1820065</v>
@@ -7762,7 +7736,7 @@
     </row>
     <row r="67" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>44</v>
@@ -7773,10 +7747,10 @@
     </row>
     <row r="68" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C68" s="2">
         <v>1820067</v>
@@ -7784,7 +7758,7 @@
     </row>
     <row r="69" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>45</v>
@@ -7795,7 +7769,7 @@
     </row>
     <row r="70" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>46</v>
@@ -7806,10 +7780,10 @@
     </row>
     <row r="71" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C71" s="2">
         <v>1820070</v>
@@ -7817,7 +7791,7 @@
     </row>
     <row r="72" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>47</v>
@@ -7828,10 +7802,10 @@
     </row>
     <row r="73" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C73" s="2">
         <v>1820072</v>
@@ -7839,10 +7813,10 @@
     </row>
     <row r="74" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C74" s="2">
         <v>1820073</v>
@@ -7850,7 +7824,7 @@
     </row>
     <row r="75" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>48</v>
@@ -7861,10 +7835,10 @@
     </row>
     <row r="76" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C76" s="2">
         <v>1820075</v>
@@ -7872,7 +7846,7 @@
     </row>
     <row r="77" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>49</v>
@@ -7883,10 +7857,10 @@
     </row>
     <row r="78" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C78" s="2">
         <v>1820077</v>
@@ -7894,7 +7868,7 @@
     </row>
     <row r="79" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>50</v>
@@ -7905,7 +7879,7 @@
     </row>
     <row r="80" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>51</v>
@@ -7916,10 +7890,10 @@
     </row>
     <row r="81" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C81" s="2">
         <v>1820080</v>
@@ -7927,10 +7901,10 @@
     </row>
     <row r="82" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C82" s="2">
         <v>1820081</v>
@@ -7938,10 +7912,10 @@
     </row>
     <row r="83" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C83" s="2">
         <v>1820082</v>
@@ -7949,7 +7923,7 @@
     </row>
     <row r="84" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>52</v>
@@ -7960,7 +7934,7 @@
     </row>
     <row r="85" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>53</v>
@@ -7971,10 +7945,10 @@
     </row>
     <row r="86" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C86" s="2">
         <v>1820085</v>
@@ -7982,10 +7956,10 @@
     </row>
     <row r="87" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C87" s="2">
         <v>1820086</v>
@@ -7993,10 +7967,10 @@
     </row>
     <row r="88" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C88" s="2">
         <v>1820087</v>
@@ -8004,7 +7978,7 @@
     </row>
     <row r="89" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>54</v>
@@ -8015,7 +7989,7 @@
     </row>
     <row r="90" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>55</v>
@@ -8026,10 +8000,10 @@
     </row>
     <row r="91" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C91" s="2">
         <v>1820090</v>
@@ -8037,10 +8011,10 @@
     </row>
     <row r="92" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C92" s="2">
         <v>1820091</v>
@@ -8048,7 +8022,7 @@
     </row>
     <row r="93" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>56</v>
@@ -8059,10 +8033,10 @@
     </row>
     <row r="94" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C94" s="2">
         <v>1820093</v>
@@ -8070,10 +8044,10 @@
     </row>
     <row r="95" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C95" s="2">
         <v>1820094</v>
@@ -8081,7 +8055,7 @@
     </row>
     <row r="96" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>57</v>
@@ -8092,7 +8066,7 @@
     </row>
     <row r="97" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>58</v>
@@ -8103,7 +8077,7 @@
     </row>
     <row r="98" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>59</v>
@@ -8114,7 +8088,7 @@
     </row>
     <row r="99" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>60</v>
@@ -8125,7 +8099,7 @@
     </row>
     <row r="100" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>61</v>
@@ -8150,7 +8124,7 @@
         <v>74</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C102" s="2">
         <v>1820101</v>
@@ -8183,7 +8157,7 @@
         <v>77</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C105" s="2">
         <v>1820104</v>
@@ -8205,7 +8179,7 @@
         <v>79</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C107" s="2">
         <v>1820106</v>
@@ -8216,7 +8190,7 @@
         <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C108" s="2">
         <v>1820107</v>
@@ -8238,7 +8212,7 @@
         <v>82</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C110" s="2">
         <v>1820109</v>
@@ -8293,7 +8267,7 @@
         <v>87</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C115" s="2">
         <v>1820114</v>
@@ -8304,7 +8278,7 @@
         <v>88</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C116" s="2">
         <v>1820115</v>
@@ -8326,7 +8300,7 @@
         <v>90</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C118" s="2">
         <v>1820117</v>
@@ -8348,7 +8322,7 @@
         <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C120" s="2">
         <v>1820119</v>
@@ -8420,95 +8394,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="WkxjkOyVRw6+UI3yzXxmbOFoBDkAMIE0q+07jPZ7WjJsDw5vVbawZWQNl739GZVym2FytQNVlncS/V9bHjg0dw==" saltValue="pWR1B8VGM4+WbDCa7icmYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:C126" name="Data"/>
+  </protectedRanges>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Batch 2018-20/Sem 2/Students Database.xlsx
+++ b/Batch 2018-20/Sem 2/Students Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83AE81-7D10-4529-9A1D-AE00C2D1CB39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A6F713-8B92-4751-9365-A521BAC827E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
   </bookViews>
@@ -819,9 +819,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7002,10 +7005,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -8395,10 +8398,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WkxjkOyVRw6+UI3yzXxmbOFoBDkAMIE0q+07jPZ7WjJsDw5vVbawZWQNl739GZVym2FytQNVlncS/V9bHjg0dw==" saltValue="pWR1B8VGM4+WbDCa7icmYQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <protectedRanges>
-    <protectedRange sqref="A2:C126" name="Data"/>
-  </protectedRanges>
+  <mergeCells count="2">
+    <mergeCell ref="D1:XFD1048576"/>
+    <mergeCell ref="A127:C1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
